--- a/MVP/SHOPPING_LISTS/ERIKS.xlsx
+++ b/MVP/SHOPPING_LISTS/ERIKS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee1e2ca77da94d7e/Nascent Ventures BV/Participaties/Vitrotem BV/13 R^0D/1. Device/MVP/SHOPPING_LISTS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_5FD927D9AAA34012A54211AB83863AFC461A7EEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0420A10B-C42A-4E73-901C-CE3B4F3530F6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4665" yWindow="2107" windowWidth="16658" windowHeight="9458" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -109,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +193,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -233,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,9 +279,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,6 +331,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,7 +524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -482,20 +532,21 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="26" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="14.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.73046875" customWidth="1"/>
+    <col min="4" max="4" width="50.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
+    <col min="6" max="6" width="36.73046875" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" customWidth="1"/>
+    <col min="8" max="8" width="16.73046875" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="26" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
       <c r="B2" s="1">
         <v>12</v>
       </c>
@@ -544,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <v>13</v>
       </c>
@@ -564,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>14</v>
       </c>
@@ -584,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <v>15</v>
       </c>
@@ -604,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <v>16</v>
       </c>
@@ -627,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <v>17</v>
       </c>
@@ -651,7 +702,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MVP/SHOPPING_LISTS/ERIKS.xlsx
+++ b/MVP/SHOPPING_LISTS/ERIKS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee1e2ca77da94d7e/Nascent Ventures BV/Participaties/Vitrotem BV/13 R^0D/1. Device/MVP/SHOPPING_LISTS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5FD927D9AAA34012A54211AB83863AFC461A7EEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0420A10B-C42A-4E73-901C-CE3B4F3530F6}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2107" windowWidth="16658" windowHeight="9458" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -115,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,14 +187,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -247,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,27 +265,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,24 +299,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,7 +474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -532,21 +482,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
-    <col min="2" max="2" width="14.73046875" customWidth="1"/>
-    <col min="3" max="3" width="21.73046875" customWidth="1"/>
-    <col min="4" max="4" width="50.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.73046875" customWidth="1"/>
-    <col min="6" max="6" width="36.73046875" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" customWidth="1"/>
-    <col min="8" max="8" width="16.73046875" customWidth="1"/>
-    <col min="9" max="9" width="13.73046875" customWidth="1"/>
-    <col min="10" max="26" width="9.1328125" style="1"/>
+    <col min="1" max="26" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,9 +524,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -595,9 +544,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -615,9 +564,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -635,9 +584,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -655,9 +604,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -675,12 +624,12 @@
         <v>28</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -702,7 +651,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>